--- a/experiments/capital/bert-base-uncased_15/123/word_level_error_type_summary.xlsx
+++ b/experiments/capital/bert-base-uncased_15/123/word_level_error_type_summary.xlsx
@@ -447,27 +447,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>False_I-NonEvent</t>
         </is>
       </c>
       <c r="B6" t="n">
